--- a/Training/Day 1/3. Exercise/2. Excercise.xlsx
+++ b/Training/Day 1/3. Exercise/2. Excercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="15300" windowHeight="5850" activeTab="3"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="15300" windowHeight="5850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SP-Packages" sheetId="3" r:id="rId3"/>
     <sheet name="SP-Booking" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1024,7 +1024,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,21 +1085,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,12 +1120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1288,6 +1269,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1334,26 +1318,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1361,56 +1336,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1975,20 +1932,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2039,17 +1996,17 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2085,14 +2042,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2123,16 +2080,16 @@
       <c r="F13" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="61"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2141,10 +2098,10 @@
       <c r="B16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="42" t="s">
         <v>292</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2156,7 +2113,7 @@
       <c r="G16" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>296</v>
       </c>
       <c r="J16" s="27"/>
@@ -2185,19 +2142,19 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -2260,14 +2217,14 @@
       <c r="T20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="U20" s="58" t="s">
+      <c r="U20" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="V20" s="59"/>
-      <c r="W20" s="58" t="s">
+      <c r="V20" s="55"/>
+      <c r="W20" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="X20" s="59"/>
+      <c r="X20" s="55"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -2323,19 +2280,19 @@
       <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -2353,7 +2310,7 @@
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="40" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -2398,14 +2355,14 @@
       <c r="T24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="V24" s="59"/>
-      <c r="W24" s="58" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="X24" s="59"/>
+      <c r="X24" s="55"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -2434,14 +2391,14 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2462,16 +2419,16 @@
       <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -2522,16 +2479,16 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -2574,16 +2531,16 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -2634,16 +2591,16 @@
       <c r="K36" s="6"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -2664,7 +2621,7 @@
       <c r="F39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -2772,16 +2729,16 @@
       <c r="O41" s="12"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -2900,16 +2857,16 @@
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -3056,16 +3013,16 @@
       <c r="AI51" s="3"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -3169,16 +3126,16 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -3243,13 +3200,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="A56:H56"/>
@@ -3261,6 +3211,13 @@
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="W24:X24"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3271,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:U35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3299,92 +3256,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-    </row>
-    <row r="4" spans="1:27" s="33" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+    </row>
+    <row r="4" spans="1:27" s="34" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
@@ -3393,7 +3350,7 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -3432,104 +3389,104 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:27" s="47" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-    </row>
-    <row r="8" spans="1:27" s="47" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+    </row>
+    <row r="8" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-    </row>
-    <row r="9" spans="1:27" s="47" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -3555,29 +3512,29 @@
       <c r="U10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
     </row>
     <row r="12" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -3589,10 +3546,10 @@
       <c r="C12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="60" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -3604,13 +3561,13 @@
       <c r="H12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="29" t="s">
         <v>134</v>
       </c>
       <c r="L12" s="19" t="s">
@@ -3622,19 +3579,19 @@
       <c r="N12" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="R12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="31" t="s">
         <v>122</v>
       </c>
       <c r="T12" s="21"/>
@@ -3687,29 +3644,29 @@
       <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
     </row>
     <row r="16" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -3721,10 +3678,10 @@
       <c r="C16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
@@ -3773,10 +3730,10 @@
       <c r="W16" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="36" t="s">
         <v>156</v>
       </c>
       <c r="Z16" s="20" t="s">
@@ -3839,29 +3796,29 @@
       <c r="U18" s="21"/>
     </row>
     <row r="19" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
     </row>
     <row r="20" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -3873,10 +3830,10 @@
       <c r="C20" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="60" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="19" t="s">
@@ -3993,110 +3950,110 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
     </row>
-    <row r="23" spans="1:28" s="50" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-    </row>
-    <row r="24" spans="1:28" s="50" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+    </row>
+    <row r="24" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-    </row>
-    <row r="25" spans="1:28" s="50" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
     </row>
     <row r="26" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -4126,29 +4083,29 @@
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
     </row>
     <row r="28" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
@@ -4160,16 +4117,16 @@
       <c r="C28" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="60" t="s">
         <v>181</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="35" t="s">
         <v>122</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -4242,29 +4199,29 @@
       <c r="U30" s="21"/>
     </row>
     <row r="31" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
     </row>
     <row r="32" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
@@ -4276,10 +4233,10 @@
       <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="60" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="19" t="s">
@@ -4364,29 +4321,29 @@
       <c r="U34" s="21"/>
     </row>
     <row r="35" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
     </row>
     <row r="36" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
@@ -4398,10 +4355,10 @@
       <c r="C36" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="60" t="s">
         <v>146</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -4496,29 +4453,29 @@
       <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
     </row>
     <row r="40" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
@@ -4595,53 +4552,53 @@
       <c r="V41" s="23"/>
     </row>
     <row r="42" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
     </row>
     <row r="43" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67" t="s">
+      <c r="B43" s="60"/>
+      <c r="C43" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="67"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="G43" s="67"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="I43" s="67" t="s">
+      <c r="I43" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="J43" s="67"/>
+      <c r="J43" s="61"/>
       <c r="K43" s="19" t="s">
         <v>219</v>
       </c>
@@ -4680,42 +4637,42 @@
       <c r="U44" s="21"/>
     </row>
     <row r="46" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="63"/>
+      <c r="E47" s="64"/>
     </row>
     <row r="48" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
@@ -4725,56 +4682,56 @@
       <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="62" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="63"/>
+      <c r="H50" s="64"/>
       <c r="I50" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J50" s="62" t="s">
+      <c r="J50" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="63"/>
+      <c r="K50" s="64"/>
       <c r="L50" s="19" t="s">
         <v>219</v>
       </c>
@@ -4808,14 +4765,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A15:U15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A49:U49"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A27:U27"/>
+    <mergeCell ref="A31:U31"/>
+    <mergeCell ref="A19:U19"/>
     <mergeCell ref="A46:U46"/>
     <mergeCell ref="A23:U23"/>
     <mergeCell ref="D20:E20"/>
@@ -4828,19 +4790,14 @@
     <mergeCell ref="A42:U42"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A27:U27"/>
-    <mergeCell ref="A31:U31"/>
-    <mergeCell ref="A19:U19"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A49:U49"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A15:U15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4851,131 +4808,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A51" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.85546875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="107.85546875" style="37" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="73.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="73.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>266</v>
       </c>
       <c r="B27" t="s">
@@ -4984,82 +4941,82 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="37" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="37" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="37" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="37" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="37" t="s">
         <v>266</v>
       </c>
       <c r="B46" t="s">
@@ -5068,30 +5025,30 @@
       <c r="C46" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="37" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="39" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="37" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>249</v>
       </c>
     </row>
